--- a/gantt-chart-housepy.xlsx
+++ b/gantt-chart-housepy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Documents\Data_Analysis-BC_UT\Group Project\test\project-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F013CDA-26BF-4F0B-B7D3-2077569DD14F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{24462828-3B83-435A-AAB0-058DFA60D881}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="3810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="3816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$AE$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$AE$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -28,7 +28,7 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="194">
   <si>
     <t>WBS</t>
   </si>
@@ -2578,7 +2578,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2921,6 +2921,9 @@
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2969,7 +2972,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="50">
     <dxf>
       <border>
         <left style="thin">
@@ -3099,18 +3102,6 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -3677,9 +3668,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>125730</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
@@ -4264,29 +4255,29 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43.0546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.94140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.71875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="1.88671875" style="1" customWidth="1"/>
     <col min="11" max="31" width="2.44140625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.1640625" style="3"/>
+    <col min="32" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="97" t="s">
         <v>131</v>
       </c>
@@ -4320,7 +4311,7 @@
       <c r="AD1" s="132"/>
       <c r="AE1" s="132"/>
     </row>
-    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>156</v>
       </c>
@@ -4331,7 +4322,7 @@
       <c r="F2" s="129"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="13.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="44"/>
       <c r="C3" s="4"/>
@@ -4358,7 +4349,7 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="86" t="s">
         <v>69</v>
@@ -4408,7 +4399,7 @@
       <c r="AD4" s="135"/>
       <c r="AE4" s="136"/>
     </row>
-    <row r="5" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="86" t="s">
         <v>70</v>
@@ -4452,7 +4443,7 @@
       <c r="AD5" s="139"/>
       <c r="AE5" s="140"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -4548,7 +4539,7 @@
         <v>43275</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="96" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" s="96" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="88" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4653,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -4680,7 +4671,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69" t="str">
-        <f t="shared" ref="I8:I64" si="2">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I63" si="2">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="72"/>
@@ -4706,9 +4697,9 @@
       <c r="AD8" s="78"/>
       <c r="AE8" s="78"/>
     </row>
-    <row r="9" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="str">
-        <f t="shared" ref="A9:A22" si="3">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A21" si="3">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="98" t="s">
@@ -4729,7 +4720,7 @@
       </c>
       <c r="H9" s="59">
         <f>AVERAGE(H10:H16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="60">
         <f t="shared" si="2"/>
@@ -4758,9 +4749,9 @@
       <c r="AD9" s="79"/>
       <c r="AE9" s="79"/>
     </row>
-    <row r="10" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A10:A16" si="4">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
       <c r="B10" s="98" t="s">
@@ -4780,7 +4771,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="60">
         <f t="shared" si="2"/>
@@ -4809,9 +4800,9 @@
       <c r="AD10" s="79"/>
       <c r="AE10" s="79"/>
     </row>
-    <row r="11" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="4"/>
         <v>1.1.2</v>
       </c>
       <c r="B11" s="98" t="s">
@@ -4831,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="60">
         <f t="shared" si="2"/>
@@ -4860,9 +4851,9 @@
       <c r="AD11" s="79"/>
       <c r="AE11" s="79"/>
     </row>
-    <row r="12" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="4"/>
         <v>1.1.3</v>
       </c>
       <c r="B12" s="98" t="s">
@@ -4882,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="60">
         <f t="shared" si="2"/>
@@ -4911,9 +4902,9 @@
       <c r="AD12" s="79"/>
       <c r="AE12" s="79"/>
     </row>
-    <row r="13" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="4"/>
         <v>1.1.4</v>
       </c>
       <c r="B13" s="98" t="s">
@@ -4933,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="60">
         <f t="shared" si="2"/>
@@ -4962,9 +4953,9 @@
       <c r="AD13" s="79"/>
       <c r="AE13" s="79"/>
     </row>
-    <row r="14" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="4"/>
         <v>1.1.5</v>
       </c>
       <c r="B14" s="98" t="s">
@@ -4984,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="60">
         <f t="shared" si="2"/>
@@ -5013,9 +5004,9 @@
       <c r="AD14" s="79"/>
       <c r="AE14" s="79"/>
     </row>
-    <row r="15" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="4"/>
         <v>1.1.6</v>
       </c>
       <c r="B15" s="98" t="s">
@@ -5035,10 +5026,10 @@
         <v>3</v>
       </c>
       <c r="H15" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="60">
-        <f t="shared" ref="I15:I16" si="4">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
+        <f t="shared" ref="I15:I16" si="5">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
         <v>0</v>
       </c>
       <c r="J15" s="73"/>
@@ -5064,9 +5055,9 @@
       <c r="AD15" s="79"/>
       <c r="AE15" s="79"/>
     </row>
-    <row r="16" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="4"/>
         <v>1.1.7</v>
       </c>
       <c r="B16" s="98" t="s">
@@ -5086,10 +5077,10 @@
         <v>3</v>
       </c>
       <c r="H16" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J16" s="73"/>
@@ -5115,7 +5106,7 @@
       <c r="AD16" s="79"/>
       <c r="AE16" s="79"/>
     </row>
-    <row r="17" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="str">
         <f t="shared" si="3"/>
         <v>1.2</v>
@@ -5137,7 +5128,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="60">
         <f t="shared" si="2"/>
@@ -5166,7 +5157,7 @@
       <c r="AD17" s="79"/>
       <c r="AE17" s="79"/>
     </row>
-    <row r="18" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="str">
         <f t="shared" si="3"/>
         <v>1.3</v>
@@ -5188,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="60">
         <f t="shared" si="2"/>
@@ -5217,7 +5208,7 @@
       <c r="AD18" s="79"/>
       <c r="AE18" s="79"/>
     </row>
-    <row r="19" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="str">
         <f t="shared" si="3"/>
         <v>1.4</v>
@@ -5239,7 +5230,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="60">
         <f t="shared" si="2"/>
@@ -5268,7 +5259,7 @@
       <c r="AD19" s="79"/>
       <c r="AE19" s="79"/>
     </row>
-    <row r="20" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="str">
         <f t="shared" si="3"/>
         <v>1.5</v>
@@ -5290,10 +5281,10 @@
         <v>4</v>
       </c>
       <c r="H20" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="60">
-        <f t="shared" ref="I20:I21" si="5">IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
+        <f t="shared" ref="I20" si="6">IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
         <v>5</v>
       </c>
       <c r="J20" s="73"/>
@@ -5319,13 +5310,13 @@
       <c r="AD20" s="79"/>
       <c r="AE20" s="79"/>
     </row>
-    <row r="21" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="str">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>135</v>
@@ -5341,10 +5332,10 @@
         <v>4</v>
       </c>
       <c r="H21" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I21" si="7">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
         <v>5</v>
       </c>
       <c r="J21" s="73"/>
@@ -5370,107 +5361,107 @@
       <c r="AD21" s="79"/>
       <c r="AE21" s="79"/>
     </row>
-    <row r="22" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="56" t="str">
-        <f t="shared" si="3"/>
-        <v>1.7</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="75">
-        <v>43255</v>
-      </c>
-      <c r="F22" s="76">
-        <v>43259</v>
-      </c>
-      <c r="G22" s="58">
-        <v>4</v>
-      </c>
-      <c r="H22" s="59">
-        <v>1</v>
-      </c>
-      <c r="I22" s="60">
-        <f t="shared" ref="I22" si="6">IF(OR(F22=0,E22=0)," - ",NETWORKDAYS(E22,F22))</f>
-        <v>5</v>
-      </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-    </row>
-    <row r="23" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="str">
+    <row r="22" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B22" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77" t="str">
-        <f t="shared" ref="F23:F60" si="7">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+      <c r="D22" s="52"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77" t="str">
+        <f t="shared" ref="F22:F59" si="8">IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55" t="str">
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-    </row>
-    <row r="24" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="J22" s="74"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+    </row>
+    <row r="23" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="75">
+        <v>43259</v>
+      </c>
+      <c r="F23" s="76">
+        <v>43259</v>
+      </c>
+      <c r="G23" s="58">
+        <v>4</v>
+      </c>
+      <c r="H23" s="59">
+        <v>0</v>
+      </c>
+      <c r="I23" s="60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="73"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+    </row>
+    <row r="24" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>133</v>
@@ -5483,7 +5474,7 @@
         <v>43259</v>
       </c>
       <c r="G24" s="58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="59">
         <v>0</v>
@@ -5515,16 +5506,16 @@
       <c r="AD24" s="79"/>
       <c r="AE24" s="79"/>
     </row>
-    <row r="25" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="75">
@@ -5566,13 +5557,13 @@
       <c r="AD25" s="79"/>
       <c r="AE25" s="79"/>
     </row>
-    <row r="26" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>189</v>
@@ -5585,7 +5576,7 @@
         <v>43259</v>
       </c>
       <c r="G26" s="58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H26" s="59">
         <v>0</v>
@@ -5617,107 +5608,108 @@
       <c r="AD26" s="79"/>
       <c r="AE26" s="79"/>
     </row>
-    <row r="27" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="56" t="str">
+    <row r="27" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J27" s="74"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="81"/>
+    </row>
+    <row r="28" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
-      </c>
-      <c r="B27" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="75">
+        <v>3.1</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="99"/>
+      <c r="E28" s="75">
         <v>43259</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F28" s="76">
         <v>43259</v>
       </c>
-      <c r="G27" s="58">
-        <v>6</v>
-      </c>
-      <c r="H27" s="59">
-        <v>0</v>
-      </c>
-      <c r="I27" s="60">
+      <c r="G28" s="58">
+        <v>4</v>
+      </c>
+      <c r="H28" s="59">
+        <f>AVERAGE(H29:H32)</f>
+        <v>0.75</v>
+      </c>
+      <c r="I28" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J27" s="73"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-    </row>
-    <row r="28" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-    </row>
-    <row r="29" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="J28" s="73"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+    </row>
+    <row r="29" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>189</v>
       </c>
       <c r="D29" s="99"/>
       <c r="E29" s="75">
@@ -5730,11 +5722,10 @@
         <v>4</v>
       </c>
       <c r="H29" s="59">
-        <f>AVERAGE(H30:H33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I29:I32" si="9">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
         <v>1</v>
       </c>
       <c r="J29" s="73"/>
@@ -5760,13 +5751,13 @@
       <c r="AD29" s="79"/>
       <c r="AE29" s="79"/>
     </row>
-    <row r="30" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
+        <v>3.1.2</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" s="57" t="s">
         <v>189</v>
@@ -5782,10 +5773,10 @@
         <v>4</v>
       </c>
       <c r="H30" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="60">
-        <f t="shared" ref="I30:I33" si="8">IF(OR(F30=0,E30=0)," - ",NETWORKDAYS(E30,F30))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J30" s="73"/>
@@ -5811,13 +5802,13 @@
       <c r="AD30" s="79"/>
       <c r="AE30" s="79"/>
     </row>
-    <row r="31" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.2</v>
+        <v>3.1.3</v>
       </c>
       <c r="B31" s="98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>189</v>
@@ -5833,10 +5824,10 @@
         <v>4</v>
       </c>
       <c r="H31" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J31" s="73"/>
@@ -5862,16 +5853,16 @@
       <c r="AD31" s="79"/>
       <c r="AE31" s="79"/>
     </row>
-    <row r="32" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.3</v>
+        <v>3.1.4</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D32" s="99"/>
       <c r="E32" s="75">
@@ -5887,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J32" s="73"/>
@@ -5913,13 +5904,13 @@
       <c r="AD32" s="79"/>
       <c r="AE32" s="79"/>
     </row>
-    <row r="33" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.4</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>191</v>
@@ -5932,13 +5923,14 @@
         <v>43259</v>
       </c>
       <c r="G33" s="58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="59">
+        <f>AVERAGE(H34:H37)</f>
         <v>0</v>
       </c>
       <c r="I33" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J33" s="73"/>
@@ -5964,13 +5956,13 @@
       <c r="AD33" s="79"/>
       <c r="AE33" s="79"/>
     </row>
-    <row r="34" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B34" s="98" t="s">
-        <v>147</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
+      </c>
+      <c r="B34" s="142" t="s">
+        <v>157</v>
       </c>
       <c r="C34" s="57" t="s">
         <v>191</v>
@@ -5986,11 +5978,10 @@
         <v>3</v>
       </c>
       <c r="H34" s="59">
-        <f>AVERAGE(H35:H38)</f>
         <v>0</v>
       </c>
       <c r="I34" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I34" si="10">IF(OR(F34=0,E34=0)," - ",NETWORKDAYS(E34,F34))</f>
         <v>1</v>
       </c>
       <c r="J34" s="73"/>
@@ -6016,13 +6007,13 @@
       <c r="AD34" s="79"/>
       <c r="AE34" s="79"/>
     </row>
-    <row r="35" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
-      </c>
-      <c r="B35" s="98" t="s">
-        <v>157</v>
+        <v>3.2.2</v>
+      </c>
+      <c r="B35" s="142" t="s">
+        <v>158</v>
       </c>
       <c r="C35" s="57" t="s">
         <v>191</v>
@@ -6041,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="60">
-        <f t="shared" ref="I35" si="9">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
+        <f>IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
         <v>1</v>
       </c>
       <c r="J35" s="73"/>
@@ -6067,13 +6058,13 @@
       <c r="AD35" s="79"/>
       <c r="AE35" s="79"/>
     </row>
-    <row r="36" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.2</v>
-      </c>
-      <c r="B36" s="98" t="s">
-        <v>158</v>
+        <v>3.2.3</v>
+      </c>
+      <c r="B36" s="142" t="s">
+        <v>159</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>191</v>
@@ -6092,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="60">
-        <f>IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+        <f t="shared" ref="I36:I39" si="11">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
         <v>1</v>
       </c>
       <c r="J36" s="73"/>
@@ -6118,13 +6109,13 @@
       <c r="AD36" s="79"/>
       <c r="AE36" s="79"/>
     </row>
-    <row r="37" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.3</v>
-      </c>
-      <c r="B37" s="98" t="s">
-        <v>159</v>
+        <v>3.2.4</v>
+      </c>
+      <c r="B37" s="142" t="s">
+        <v>160</v>
       </c>
       <c r="C37" s="57" t="s">
         <v>191</v>
@@ -6143,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="60">
-        <f t="shared" ref="I37:I40" si="10">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J37" s="73"/>
@@ -6169,13 +6160,13 @@
       <c r="AD37" s="79"/>
       <c r="AE37" s="79"/>
     </row>
-    <row r="38" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.4</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C38" s="57" t="s">
         <v>191</v>
@@ -6191,10 +6182,11 @@
         <v>3</v>
       </c>
       <c r="H38" s="59">
+        <f>AVERAGE(H39:H42)</f>
         <v>0</v>
       </c>
       <c r="I38" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J38" s="73"/>
@@ -6220,13 +6212,13 @@
       <c r="AD38" s="79"/>
       <c r="AE38" s="79"/>
     </row>
-    <row r="39" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:31" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B39" s="98" t="s">
-        <v>149</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.1</v>
+      </c>
+      <c r="B39" s="142" t="s">
+        <v>161</v>
       </c>
       <c r="C39" s="57" t="s">
         <v>191</v>
@@ -6242,11 +6234,10 @@
         <v>3</v>
       </c>
       <c r="H39" s="59">
-        <f>AVERAGE(H40:H43)</f>
         <v>0</v>
       </c>
       <c r="I39" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J39" s="73"/>
@@ -6272,13 +6263,13 @@
       <c r="AD39" s="79"/>
       <c r="AE39" s="79"/>
     </row>
-    <row r="40" spans="1:31" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:31" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.1</v>
-      </c>
-      <c r="B40" s="98" t="s">
-        <v>161</v>
+        <v>3.3.2</v>
+      </c>
+      <c r="B40" s="142" t="s">
+        <v>162</v>
       </c>
       <c r="C40" s="57" t="s">
         <v>191</v>
@@ -6297,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I40:I47" si="12">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
         <v>1</v>
       </c>
       <c r="J40" s="73"/>
@@ -6323,13 +6314,13 @@
       <c r="AD40" s="79"/>
       <c r="AE40" s="79"/>
     </row>
-    <row r="41" spans="1:31" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:31" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.2</v>
-      </c>
-      <c r="B41" s="98" t="s">
-        <v>162</v>
+        <v>3.3.3</v>
+      </c>
+      <c r="B41" s="142" t="s">
+        <v>163</v>
       </c>
       <c r="C41" s="57" t="s">
         <v>191</v>
@@ -6348,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="60">
-        <f t="shared" ref="I41:I48" si="11">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J41" s="73"/>
@@ -6374,13 +6365,13 @@
       <c r="AD41" s="79"/>
       <c r="AE41" s="79"/>
     </row>
-    <row r="42" spans="1:31" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:31" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.3</v>
-      </c>
-      <c r="B42" s="98" t="s">
-        <v>163</v>
+        <v>3.3.4</v>
+      </c>
+      <c r="B42" s="142" t="s">
+        <v>164</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>191</v>
@@ -6399,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J42" s="73"/>
@@ -6425,13 +6416,13 @@
       <c r="AD42" s="79"/>
       <c r="AE42" s="79"/>
     </row>
-    <row r="43" spans="1:31" s="57" customFormat="1" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.3.4</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>191</v>
@@ -6447,10 +6438,11 @@
         <v>3</v>
       </c>
       <c r="H43" s="59">
+        <f>AVERAGE(H44:H47)</f>
         <v>0</v>
       </c>
       <c r="I43" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J43" s="73"/>
@@ -6476,13 +6468,13 @@
       <c r="AD43" s="79"/>
       <c r="AE43" s="79"/>
     </row>
-    <row r="44" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B44" s="98" t="s">
-        <v>155</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.4.1</v>
+      </c>
+      <c r="B44" s="142" t="s">
+        <v>152</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>191</v>
@@ -6498,11 +6490,10 @@
         <v>3</v>
       </c>
       <c r="H44" s="59">
-        <f>AVERAGE(H45:H48)</f>
         <v>0</v>
       </c>
       <c r="I44" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J44" s="73"/>
@@ -6528,13 +6519,13 @@
       <c r="AD44" s="79"/>
       <c r="AE44" s="79"/>
     </row>
-    <row r="45" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.1</v>
-      </c>
-      <c r="B45" s="98" t="s">
-        <v>152</v>
+        <v>3.4.2</v>
+      </c>
+      <c r="B45" s="142" t="s">
+        <v>151</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>191</v>
@@ -6553,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J45" s="73"/>
@@ -6579,13 +6570,13 @@
       <c r="AD45" s="79"/>
       <c r="AE45" s="79"/>
     </row>
-    <row r="46" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.2</v>
-      </c>
-      <c r="B46" s="98" t="s">
-        <v>151</v>
+        <v>3.4.3</v>
+      </c>
+      <c r="B46" s="142" t="s">
+        <v>154</v>
       </c>
       <c r="C46" s="57" t="s">
         <v>191</v>
@@ -6604,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J46" s="73"/>
@@ -6630,13 +6621,13 @@
       <c r="AD46" s="79"/>
       <c r="AE46" s="79"/>
     </row>
-    <row r="47" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.3</v>
-      </c>
-      <c r="B47" s="98" t="s">
-        <v>154</v>
+        <v>3.4.4</v>
+      </c>
+      <c r="B47" s="142" t="s">
+        <v>153</v>
       </c>
       <c r="C47" s="57" t="s">
         <v>191</v>
@@ -6655,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J47" s="73"/>
@@ -6681,16 +6672,16 @@
       <c r="AD47" s="79"/>
       <c r="AE47" s="79"/>
     </row>
-    <row r="48" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.4.4</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D48" s="99"/>
       <c r="E48" s="75">
@@ -6703,10 +6694,11 @@
         <v>3</v>
       </c>
       <c r="H48" s="59">
+        <f>AVERAGE(H49:H58)</f>
         <v>0</v>
       </c>
       <c r="I48" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I48:I58" si="13">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
         <v>1</v>
       </c>
       <c r="J48" s="73"/>
@@ -6732,13 +6724,13 @@
       <c r="AD48" s="79"/>
       <c r="AE48" s="79"/>
     </row>
-    <row r="49" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B49" s="98" t="s">
-        <v>150</v>
+        <f t="shared" ref="A49:A58" si="14">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.5.1</v>
+      </c>
+      <c r="B49" s="142" t="s">
+        <v>167</v>
       </c>
       <c r="C49" s="57" t="s">
         <v>189</v>
@@ -6754,11 +6746,10 @@
         <v>3</v>
       </c>
       <c r="H49" s="59">
-        <f>AVERAGE(H50:H59)</f>
         <v>0</v>
       </c>
       <c r="I49" s="60">
-        <f t="shared" ref="I49:I59" si="12">IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J49" s="73"/>
@@ -6784,23 +6775,23 @@
       <c r="AD49" s="79"/>
       <c r="AE49" s="79"/>
     </row>
-    <row r="50" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.1</v>
-      </c>
-      <c r="B50" s="98" t="s">
-        <v>167</v>
+        <f t="shared" si="14"/>
+        <v>3.5.2</v>
+      </c>
+      <c r="B50" s="142" t="s">
+        <v>168</v>
       </c>
       <c r="C50" s="57" t="s">
         <v>189</v>
       </c>
       <c r="D50" s="99"/>
       <c r="E50" s="75">
-        <v>43259</v>
+        <v>43260</v>
       </c>
       <c r="F50" s="76">
-        <v>43259</v>
+        <v>43261</v>
       </c>
       <c r="G50" s="58">
         <v>3</v>
@@ -6809,8 +6800,8 @@
         <v>0</v>
       </c>
       <c r="I50" s="60">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" ref="I50" si="15">IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
+        <v>0</v>
       </c>
       <c r="J50" s="73"/>
       <c r="K50" s="79"/>
@@ -6835,13 +6826,13 @@
       <c r="AD50" s="79"/>
       <c r="AE50" s="79"/>
     </row>
-    <row r="51" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.2</v>
-      </c>
-      <c r="B51" s="98" t="s">
-        <v>168</v>
+        <f t="shared" si="14"/>
+        <v>3.5.3</v>
+      </c>
+      <c r="B51" s="142" t="s">
+        <v>170</v>
       </c>
       <c r="C51" s="57" t="s">
         <v>189</v>
@@ -6860,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="60">
-        <f t="shared" ref="I51" si="13">IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
+        <f t="shared" ref="I51" si="16">IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
         <v>0</v>
       </c>
       <c r="J51" s="73"/>
@@ -6886,13 +6877,13 @@
       <c r="AD51" s="79"/>
       <c r="AE51" s="79"/>
     </row>
-    <row r="52" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.3</v>
-      </c>
-      <c r="B52" s="98" t="s">
-        <v>170</v>
+        <f t="shared" si="14"/>
+        <v>3.5.4</v>
+      </c>
+      <c r="B52" s="142" t="s">
+        <v>169</v>
       </c>
       <c r="C52" s="57" t="s">
         <v>189</v>
@@ -6911,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="60">
-        <f t="shared" ref="I52" si="14">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
+        <f t="shared" ref="I52" si="17">IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
         <v>0</v>
       </c>
       <c r="J52" s="73"/>
@@ -6937,13 +6928,13 @@
       <c r="AD52" s="79"/>
       <c r="AE52" s="79"/>
     </row>
-    <row r="53" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A53" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.4</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>169</v>
+        <f t="shared" si="14"/>
+        <v>3.5.5</v>
+      </c>
+      <c r="B53" s="142" t="s">
+        <v>171</v>
       </c>
       <c r="C53" s="57" t="s">
         <v>189</v>
@@ -6962,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="60">
-        <f t="shared" ref="I53" si="15">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
+        <f t="shared" ref="I53" si="18">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
         <v>0</v>
       </c>
       <c r="J53" s="73"/>
@@ -6988,13 +6979,13 @@
       <c r="AD53" s="79"/>
       <c r="AE53" s="79"/>
     </row>
-    <row r="54" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.5</v>
-      </c>
-      <c r="B54" s="98" t="s">
-        <v>171</v>
+        <f t="shared" si="14"/>
+        <v>3.5.6</v>
+      </c>
+      <c r="B54" s="142" t="s">
+        <v>173</v>
       </c>
       <c r="C54" s="57" t="s">
         <v>189</v>
@@ -7013,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="60">
-        <f t="shared" ref="I54" si="16">IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
+        <f t="shared" ref="I54" si="19">IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
         <v>0</v>
       </c>
       <c r="J54" s="73"/>
@@ -7039,13 +7030,13 @@
       <c r="AD54" s="79"/>
       <c r="AE54" s="79"/>
     </row>
-    <row r="55" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.6</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>173</v>
+        <f t="shared" si="14"/>
+        <v>3.5.7</v>
+      </c>
+      <c r="B55" s="142" t="s">
+        <v>172</v>
       </c>
       <c r="C55" s="57" t="s">
         <v>189</v>
@@ -7064,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="60">
-        <f t="shared" ref="I55" si="17">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+        <f t="shared" ref="I55" si="20">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
         <v>0</v>
       </c>
       <c r="J55" s="73"/>
@@ -7090,13 +7081,13 @@
       <c r="AD55" s="79"/>
       <c r="AE55" s="79"/>
     </row>
-    <row r="56" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.7</v>
-      </c>
-      <c r="B56" s="98" t="s">
-        <v>172</v>
+        <f t="shared" si="14"/>
+        <v>3.5.8</v>
+      </c>
+      <c r="B56" s="142" t="s">
+        <v>157</v>
       </c>
       <c r="C56" s="57" t="s">
         <v>189</v>
@@ -7115,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="60">
-        <f t="shared" ref="I56" si="18">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J56" s="73"/>
@@ -7141,13 +7132,13 @@
       <c r="AD56" s="79"/>
       <c r="AE56" s="79"/>
     </row>
-    <row r="57" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.8</v>
-      </c>
-      <c r="B57" s="98" t="s">
-        <v>157</v>
+        <f t="shared" si="14"/>
+        <v>3.5.9</v>
+      </c>
+      <c r="B57" s="142" t="s">
+        <v>165</v>
       </c>
       <c r="C57" s="57" t="s">
         <v>189</v>
@@ -7166,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J57" s="73"/>
@@ -7192,13 +7183,13 @@
       <c r="AD57" s="79"/>
       <c r="AE57" s="79"/>
     </row>
-    <row r="58" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.9</v>
-      </c>
-      <c r="B58" s="98" t="s">
-        <v>165</v>
+        <f t="shared" si="14"/>
+        <v>3.5.10</v>
+      </c>
+      <c r="B58" s="142" t="s">
+        <v>166</v>
       </c>
       <c r="C58" s="57" t="s">
         <v>189</v>
@@ -7217,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J58" s="73"/>
@@ -7243,107 +7234,107 @@
       <c r="AD58" s="79"/>
       <c r="AE58" s="79"/>
     </row>
-    <row r="59" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.10</v>
-      </c>
-      <c r="B59" s="98" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="75">
-        <v>43260</v>
-      </c>
-      <c r="F59" s="76">
-        <v>43261</v>
-      </c>
-      <c r="G59" s="58">
-        <v>3</v>
-      </c>
-      <c r="H59" s="59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="60">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="73"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="79"/>
-      <c r="R59" s="79"/>
-      <c r="S59" s="79"/>
-      <c r="T59" s="79"/>
-      <c r="U59" s="79"/>
-      <c r="V59" s="79"/>
-      <c r="W59" s="79"/>
-      <c r="X59" s="79"/>
-      <c r="Y59" s="79"/>
-      <c r="Z59" s="79"/>
-      <c r="AA59" s="79"/>
-      <c r="AB59" s="79"/>
-      <c r="AC59" s="79"/>
-      <c r="AD59" s="79"/>
-      <c r="AE59" s="79"/>
-    </row>
-    <row r="60" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="49" t="str">
+    <row r="59" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B59" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77" t="str">
-        <f t="shared" si="7"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="55" t="str">
+      <c r="G59" s="53"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="55" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J60" s="74"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="81"/>
-      <c r="S60" s="81"/>
-      <c r="T60" s="81"/>
-      <c r="U60" s="81"/>
-      <c r="V60" s="81"/>
-      <c r="W60" s="81"/>
-      <c r="X60" s="81"/>
-      <c r="Y60" s="81"/>
-      <c r="Z60" s="81"/>
-      <c r="AA60" s="81"/>
-      <c r="AB60" s="81"/>
-      <c r="AC60" s="81"/>
-      <c r="AD60" s="81"/>
-      <c r="AE60" s="81"/>
-    </row>
-    <row r="61" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="J59" s="74"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="81"/>
+      <c r="S59" s="81"/>
+      <c r="T59" s="81"/>
+      <c r="U59" s="81"/>
+      <c r="V59" s="81"/>
+      <c r="W59" s="81"/>
+      <c r="X59" s="81"/>
+      <c r="Y59" s="81"/>
+      <c r="Z59" s="81"/>
+      <c r="AA59" s="81"/>
+      <c r="AB59" s="81"/>
+      <c r="AC59" s="81"/>
+      <c r="AD59" s="81"/>
+      <c r="AE59" s="81"/>
+    </row>
+    <row r="60" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B60" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="99"/>
+      <c r="E60" s="75">
+        <v>43260</v>
+      </c>
+      <c r="F60" s="76">
+        <v>43261</v>
+      </c>
+      <c r="G60" s="58">
+        <v>1</v>
+      </c>
+      <c r="H60" s="59">
+        <v>0</v>
+      </c>
+      <c r="I60" s="60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="73"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
+      <c r="Q60" s="79"/>
+      <c r="R60" s="79"/>
+      <c r="S60" s="79"/>
+      <c r="T60" s="79"/>
+      <c r="U60" s="79"/>
+      <c r="V60" s="79"/>
+      <c r="W60" s="79"/>
+      <c r="X60" s="79"/>
+      <c r="Y60" s="79"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="79"/>
+      <c r="AB60" s="79"/>
+      <c r="AC60" s="79"/>
+      <c r="AD60" s="79"/>
+      <c r="AE60" s="79"/>
+    </row>
+    <row r="61" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="B61" s="98" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C61" s="57" t="s">
         <v>189</v>
@@ -7388,16 +7379,16 @@
       <c r="AD61" s="79"/>
       <c r="AE61" s="79"/>
     </row>
-    <row r="62" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="B62" s="98" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D62" s="99"/>
       <c r="E62" s="75">
@@ -7439,13 +7430,13 @@
       <c r="AD62" s="79"/>
       <c r="AE62" s="79"/>
     </row>
-    <row r="63" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C63" s="57" t="s">
         <v>193</v>
@@ -7490,117 +7481,117 @@
       <c r="AD63" s="79"/>
       <c r="AE63" s="79"/>
     </row>
-    <row r="64" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B64" s="98" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="75">
-        <v>43260</v>
-      </c>
-      <c r="F64" s="76">
-        <v>43261</v>
-      </c>
-      <c r="G64" s="58">
-        <v>1</v>
-      </c>
-      <c r="H64" s="59">
-        <v>0</v>
-      </c>
-      <c r="I64" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="73"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
-      <c r="N64" s="79"/>
-      <c r="O64" s="79"/>
-      <c r="P64" s="79"/>
-      <c r="Q64" s="79"/>
-      <c r="R64" s="79"/>
-      <c r="S64" s="79"/>
-      <c r="T64" s="79"/>
-      <c r="U64" s="79"/>
-      <c r="V64" s="79"/>
-      <c r="W64" s="79"/>
-      <c r="X64" s="79"/>
-      <c r="Y64" s="79"/>
-      <c r="Z64" s="79"/>
-      <c r="AA64" s="79"/>
-      <c r="AB64" s="79"/>
-      <c r="AC64" s="79"/>
-      <c r="AD64" s="79"/>
-      <c r="AE64" s="79"/>
-    </row>
-    <row r="65" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="49" t="str">
+    <row r="64" spans="1:31" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B64" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77" t="str">
-        <f t="shared" ref="F65" si="19">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+      <c r="D64" s="52"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77" t="str">
+        <f t="shared" ref="F64" si="21">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G65" s="53"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="55" t="str">
-        <f t="shared" ref="I65:I67" si="20">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
+      <c r="G64" s="53"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="55" t="str">
+        <f t="shared" ref="I64:I66" si="22">IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J65" s="74"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="81"/>
-      <c r="N65" s="81"/>
-      <c r="O65" s="81"/>
-      <c r="P65" s="81"/>
-      <c r="Q65" s="81"/>
-      <c r="R65" s="81"/>
-      <c r="S65" s="81"/>
-      <c r="T65" s="81"/>
-      <c r="U65" s="81"/>
-      <c r="V65" s="81"/>
-      <c r="W65" s="81"/>
-      <c r="X65" s="81"/>
-      <c r="Y65" s="81"/>
-      <c r="Z65" s="81"/>
-      <c r="AA65" s="81"/>
-      <c r="AB65" s="81"/>
-      <c r="AC65" s="81"/>
-      <c r="AD65" s="81"/>
-      <c r="AE65" s="81"/>
-    </row>
-    <row r="66" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="J64" s="74"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="81"/>
+      <c r="S64" s="81"/>
+      <c r="T64" s="81"/>
+      <c r="U64" s="81"/>
+      <c r="V64" s="81"/>
+      <c r="W64" s="81"/>
+      <c r="X64" s="81"/>
+      <c r="Y64" s="81"/>
+      <c r="Z64" s="81"/>
+      <c r="AA64" s="81"/>
+      <c r="AB64" s="81"/>
+      <c r="AC64" s="81"/>
+      <c r="AD64" s="81"/>
+      <c r="AE64" s="81"/>
+    </row>
+    <row r="65" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B65" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="99"/>
+      <c r="E65" s="75">
+        <v>43262</v>
+      </c>
+      <c r="F65" s="76">
+        <v>43262</v>
+      </c>
+      <c r="G65" s="58">
+        <v>1</v>
+      </c>
+      <c r="H65" s="59">
+        <v>0</v>
+      </c>
+      <c r="I65" s="60">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="73"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="79"/>
+      <c r="Q65" s="79"/>
+      <c r="R65" s="79"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="79"/>
+      <c r="U65" s="79"/>
+      <c r="V65" s="79"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="79"/>
+      <c r="Y65" s="79"/>
+      <c r="Z65" s="79"/>
+      <c r="AA65" s="79"/>
+      <c r="AB65" s="79"/>
+      <c r="AC65" s="79"/>
+      <c r="AD65" s="79"/>
+      <c r="AE65" s="79"/>
+    </row>
+    <row r="66" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="B66" s="98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C66" s="57" t="s">
         <v>191</v>
       </c>
       <c r="D66" s="99"/>
       <c r="E66" s="75">
-        <v>43262</v>
+        <v>43263</v>
       </c>
       <c r="F66" s="76">
-        <v>43262</v>
+        <v>43263</v>
       </c>
       <c r="G66" s="58">
         <v>1</v>
@@ -7609,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J66" s="73"/>
@@ -7635,57 +7626,6 @@
       <c r="AD66" s="79"/>
       <c r="AE66" s="79"/>
     </row>
-    <row r="67" spans="1:31" s="57" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B67" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" s="99"/>
-      <c r="E67" s="75">
-        <v>43263</v>
-      </c>
-      <c r="F67" s="76">
-        <v>43263</v>
-      </c>
-      <c r="G67" s="58">
-        <v>1</v>
-      </c>
-      <c r="H67" s="59">
-        <v>0</v>
-      </c>
-      <c r="I67" s="60">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="J67" s="73"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="79"/>
-      <c r="R67" s="79"/>
-      <c r="S67" s="79"/>
-      <c r="T67" s="79"/>
-      <c r="U67" s="79"/>
-      <c r="V67" s="79"/>
-      <c r="W67" s="79"/>
-      <c r="X67" s="79"/>
-      <c r="Y67" s="79"/>
-      <c r="Z67" s="79"/>
-      <c r="AA67" s="79"/>
-      <c r="AB67" s="79"/>
-      <c r="AC67" s="79"/>
-      <c r="AD67" s="79"/>
-      <c r="AE67" s="79"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="9">
@@ -7700,7 +7640,7 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H23:H29 H34 H36:H38 H60:H64 H17:H19">
+  <conditionalFormatting sqref="H8:H9 H22:H28 H33 H35:H37 H59:H63 H17:H19">
     <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7715,20 +7655,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:AE7">
-    <cfRule type="expression" dxfId="50" priority="199">
+    <cfRule type="expression" dxfId="49" priority="199">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:AE9 K17:AE67">
-    <cfRule type="expression" dxfId="49" priority="202">
+  <conditionalFormatting sqref="K8:AE9 K17:AE66">
+    <cfRule type="expression" dxfId="48" priority="202">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="203">
+    <cfRule type="expression" dxfId="47" priority="203">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:AE9 K23:AE30 K34:AE34 K60:AE64 K17:AE19">
-    <cfRule type="expression" dxfId="47" priority="162">
+  <conditionalFormatting sqref="K6:AE9 K22:AE29 K33:AE33 K59:AE63 K17:AE19">
+    <cfRule type="expression" dxfId="46" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7747,30 +7687,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:AE20">
-    <cfRule type="expression" dxfId="46" priority="148">
+    <cfRule type="expression" dxfId="45" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="143">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D35CA160-5ED1-4921-8823-BDA99373BBF4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:AE21">
-    <cfRule type="expression" dxfId="45" priority="144">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
     <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7784,42 +7705,42 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:AE22">
+  <conditionalFormatting sqref="K21:AE21">
     <cfRule type="expression" dxfId="44" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:AE31">
+  <conditionalFormatting sqref="K30:AE30">
     <cfRule type="expression" dxfId="43" priority="128">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:AE32">
+  <conditionalFormatting sqref="K31:AE31">
     <cfRule type="expression" dxfId="42" priority="124">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:AE33">
+  <conditionalFormatting sqref="K32:AE32">
     <cfRule type="expression" dxfId="41" priority="120">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:AE36">
+  <conditionalFormatting sqref="K35:AE35">
     <cfRule type="expression" dxfId="40" priority="116">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:AE38">
+  <conditionalFormatting sqref="K37:AE37">
     <cfRule type="expression" dxfId="39" priority="112">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:AE37">
+  <conditionalFormatting sqref="K36:AE36">
     <cfRule type="expression" dxfId="38" priority="108">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H36">
+  <conditionalFormatting sqref="H34:H35">
     <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7833,12 +7754,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:AE36">
+  <conditionalFormatting sqref="K34:AE35">
     <cfRule type="expression" dxfId="37" priority="104">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H33">
+  <conditionalFormatting sqref="H29:H32">
     <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7852,7 +7773,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H43">
+  <conditionalFormatting sqref="H40:H42">
     <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7866,7 +7787,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H48">
+  <conditionalFormatting sqref="H45:H47">
     <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7880,7 +7801,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H38">
     <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7894,27 +7815,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:AE39">
+  <conditionalFormatting sqref="K38:AE38">
     <cfRule type="expression" dxfId="36" priority="97">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:AE43">
+  <conditionalFormatting sqref="K42:AE42">
     <cfRule type="expression" dxfId="35" priority="93">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:AE42">
+  <conditionalFormatting sqref="K41:AE41">
     <cfRule type="expression" dxfId="34" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:AE41">
+  <conditionalFormatting sqref="K40:AE40">
     <cfRule type="expression" dxfId="33" priority="87">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H39">
     <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7928,12 +7849,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:AE40">
+  <conditionalFormatting sqref="K39:AE39">
     <cfRule type="expression" dxfId="32" priority="84">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H43">
     <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7947,27 +7868,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:AE44">
+  <conditionalFormatting sqref="K43:AE43">
     <cfRule type="expression" dxfId="31" priority="79">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:AE48">
+  <conditionalFormatting sqref="K47:AE47">
     <cfRule type="expression" dxfId="30" priority="75">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:AE47">
+  <conditionalFormatting sqref="K46:AE46">
     <cfRule type="expression" dxfId="29" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:AE46">
+  <conditionalFormatting sqref="K45:AE45">
     <cfRule type="expression" dxfId="28" priority="69">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H44">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7981,12 +7902,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:AE45">
+  <conditionalFormatting sqref="K44:AE44">
     <cfRule type="expression" dxfId="27" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H59">
+  <conditionalFormatting sqref="H56:H58">
     <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8000,7 +7921,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H50">
     <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8014,7 +7935,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="H52">
     <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8028,7 +7949,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
+  <conditionalFormatting sqref="H51">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8042,7 +7963,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H48">
     <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8056,27 +7977,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:AE49">
+  <conditionalFormatting sqref="K48:AE48">
     <cfRule type="expression" dxfId="26" priority="57">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:AE59">
+  <conditionalFormatting sqref="K58:AE58">
     <cfRule type="expression" dxfId="25" priority="55">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:AE58">
+  <conditionalFormatting sqref="K57:AE57">
     <cfRule type="expression" dxfId="24" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:AE57">
+  <conditionalFormatting sqref="K56:AE56">
     <cfRule type="expression" dxfId="23" priority="53">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
+  <conditionalFormatting sqref="H49">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8090,12 +8011,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:AE50">
+  <conditionalFormatting sqref="K49:AE49">
     <cfRule type="expression" dxfId="22" priority="52">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H53">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8109,12 +8030,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:AE51">
+  <conditionalFormatting sqref="K50:AE50">
     <cfRule type="expression" dxfId="21" priority="47">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H54">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8128,22 +8049,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:AE53">
+  <conditionalFormatting sqref="K52:AE52">
     <cfRule type="expression" dxfId="20" priority="43">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:AE52">
+  <conditionalFormatting sqref="K51:AE51">
     <cfRule type="expression" dxfId="19" priority="39">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:AE54">
+  <conditionalFormatting sqref="K53:AE53">
     <cfRule type="expression" dxfId="18" priority="35">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H55">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8157,17 +8078,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:AE56">
+  <conditionalFormatting sqref="K55:AE55">
     <cfRule type="expression" dxfId="17" priority="31">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:AE55">
+  <conditionalFormatting sqref="K54:AE54">
     <cfRule type="expression" dxfId="16" priority="27">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65:H67">
+  <conditionalFormatting sqref="H64:H66">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8181,7 +8102,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:AE67">
+  <conditionalFormatting sqref="K64:AE66">
     <cfRule type="expression" dxfId="15" priority="23">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8345,8 +8266,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E23 E28 E60 G17:G19 G23:H23 G28:H28 G60:H64 H25:H27" unlockedFormula="1"/>
-    <ignoredError sqref="A60 A28 A23" formula="1"/>
+    <ignoredError sqref="E22 E27 E59 G17:G19 G22:H22 G27:H27 G59:H63 H24:H26" unlockedFormula="1"/>
+    <ignoredError sqref="A59 A27 A22" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -8360,9 +8281,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>125730</xdr:rowOff>
+                    <xdr:rowOff>129540</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
@@ -8394,7 +8315,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H23:H29 H34 H36:H38 H60:H64 H17:H19</xm:sqref>
+          <xm:sqref>H8:H9 H22:H28 H33 H35:H37 H59:H63 H17:H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79C1CFD6-5EE8-4E7E-AD76-0E8300476654}">
@@ -8412,7 +8333,7 @@
           <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D35CA160-5ED1-4921-8823-BDA99373BBF4}">
+          <x14:cfRule type="dataBar" id="{D3097085-DF7A-4CC6-B49E-C75D40AECCA3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8427,21 +8348,6 @@
           <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D3097085-DF7A-4CC6-B49E-C75D40AECCA3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1459414F-3454-4ABD-9CF2-2F0CC100DBA1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -8454,7 +8360,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H35:H36</xm:sqref>
+          <xm:sqref>H34:H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AAD2B432-D347-4CBA-BC80-15FC865408FF}">
@@ -8469,7 +8375,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H30:H33</xm:sqref>
+          <xm:sqref>H29:H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6E038684-DB0B-40E9-8E9D-9C3724E7AEAC}">
@@ -8484,7 +8390,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41:H43</xm:sqref>
+          <xm:sqref>H40:H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0BC9782A-DEBC-4015-AFBE-4F6058477F5D}">
@@ -8499,7 +8405,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46:H48</xm:sqref>
+          <xm:sqref>H45:H47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DE4AB21-03FB-4833-888E-25134D737150}">
@@ -8514,7 +8420,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
+          <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{577DEA17-DF7E-450C-99E4-B258E0796350}">
@@ -8529,7 +8435,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8A858107-B5CC-48BE-996F-6363BCE546CF}">
@@ -8544,7 +8450,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1B4A0BD2-E370-41A8-AE5A-BB9889B4B4BB}">
@@ -8559,7 +8465,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{06A484DB-5549-47E5-8176-26B637F708B7}">
@@ -8574,7 +8480,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H57:H59</xm:sqref>
+          <xm:sqref>H56:H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5CE59CDE-07F3-44E4-B9CD-A8C66FDB2D92}">
@@ -8589,7 +8495,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
+          <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0006B80-BDC4-469F-9B2D-50C7D4FBD2AA}">
@@ -8604,7 +8510,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E3CCBB03-3B51-4F70-8793-89F5429FD663}">
@@ -8619,7 +8525,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03D864E3-8699-45A1-BF10-3D52BC1B6416}">
@@ -8634,7 +8540,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5F9EEF0A-B594-4702-BDE6-8BD18D9D1EA0}">
@@ -8649,7 +8555,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A23FBAEC-7D6E-4571-B015-AD288FBF037B}">
@@ -8664,7 +8570,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
+          <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3E376263-8DA4-4D4A-9D4C-5DBF6CD0F169}">
@@ -8679,7 +8585,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{82C89273-4008-4AF5-9185-632B4933862F}">
@@ -8694,7 +8600,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17259A1F-36B8-4E35-9DF1-47C684CF251C}">
@@ -8709,7 +8615,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H65:H67</xm:sqref>
+          <xm:sqref>H64:H66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{26D60AC0-F18F-4B52-AD42-F895475C24F2}">
@@ -8818,175 +8724,175 @@
       <selection activeCell="A16" sqref="A16:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.77734375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" style="16" customWidth="1"/>
     <col min="4" max="7" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="2:2" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="16" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="16" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" s="16" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:2" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="24" t="s">
         <v>21</v>
       </c>
@@ -9012,74 +8918,74 @@
       <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="90.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="102" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="55.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B5" s="108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="108" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11" s="106" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="141" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="141"/>
     </row>
-    <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="111"/>
       <c r="B15" s="109" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="111"/>
       <c r="B16" s="110" t="s">
         <v>73</v>
@@ -9088,25 +8994,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="112"/>
       <c r="B17" s="110" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="112"/>
       <c r="B18" s="110" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="38" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" s="38" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="115"/>
       <c r="B19" s="110" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="111"/>
       <c r="B20" s="109" t="s">
         <v>74</v>
@@ -9115,153 +9021,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="112"/>
       <c r="B21" s="110" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="113"/>
       <c r="B22" s="114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="113"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="141" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="141"/>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="41.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="113"/>
       <c r="B25" s="110" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="113"/>
       <c r="B26" s="110"/>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="113"/>
       <c r="B27" s="131" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="113"/>
       <c r="B28" s="110" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="113"/>
       <c r="B29" s="110" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="113"/>
       <c r="B30" s="110"/>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="113"/>
       <c r="B31" s="131" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="113"/>
       <c r="B32" s="110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="113"/>
       <c r="B33" s="110" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="113"/>
       <c r="B35" s="110" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="113"/>
       <c r="B36" s="116" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="113"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="141" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="141"/>
     </row>
-    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B39" s="110" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="110" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:2" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" s="20" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B43" s="110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B45" s="110" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B47" s="110" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="141" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="141"/>
     </row>
-    <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B50" s="110" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="117" t="s">
         <v>9</v>
       </c>
@@ -9269,7 +9175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="117" t="s">
         <v>11</v>
       </c>
@@ -9277,7 +9183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="117" t="s">
         <v>13</v>
       </c>
@@ -9285,19 +9191,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27.9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A55" s="106"/>
       <c r="B55" s="110" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27.9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A56" s="106"/>
       <c r="B56" s="110" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="117" t="s">
         <v>15</v>
       </c>
@@ -9305,19 +9211,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="106"/>
       <c r="B58" s="110" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="106"/>
       <c r="B59" s="110" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="117" t="s">
         <v>17</v>
       </c>
@@ -9325,13 +9231,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="27.9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A61" s="106"/>
       <c r="B61" s="110" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="117" t="s">
         <v>102</v>
       </c>
@@ -9339,36 +9245,36 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="118"/>
       <c r="B63" s="110" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="12"/>
     </row>
-    <row r="65" spans="1:2" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="141" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="141"/>
     </row>
-    <row r="66" spans="1:2" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B66" s="110" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="141" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="141"/>
     </row>
-    <row r="69" spans="1:2" s="20" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="125" t="s">
         <v>5</v>
       </c>
@@ -9376,17 +9282,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="119"/>
       <c r="B70" s="124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="119"/>
       <c r="B71" s="120"/>
     </row>
-    <row r="72" spans="1:2" s="20" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="125" t="s">
         <v>5</v>
       </c>
@@ -9394,17 +9300,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="8" customFormat="1" ht="27.9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" s="8" customFormat="1" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A73" s="119"/>
       <c r="B73" s="124" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="119"/>
       <c r="B74" s="120"/>
     </row>
-    <row r="75" spans="1:2" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="125" t="s">
         <v>5</v>
       </c>
@@ -9412,17 +9318,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A76" s="119"/>
       <c r="B76" s="108" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="118"/>
       <c r="B77" s="118"/>
     </row>
-    <row r="78" spans="1:2" s="20" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="125" t="s">
         <v>5</v>
       </c>
@@ -9430,17 +9336,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="119"/>
       <c r="B79" s="108" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="118"/>
       <c r="B80" s="118"/>
     </row>
-    <row r="81" spans="1:2" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="125" t="s">
         <v>5</v>
       </c>
@@ -9448,29 +9354,29 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="119"/>
       <c r="B82" s="123" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="119"/>
       <c r="B83" s="123" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="119"/>
       <c r="B84" s="123" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="118"/>
       <c r="B85" s="122"/>
     </row>
-    <row r="86" spans="1:2" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="125" t="s">
         <v>5</v>
       </c>
@@ -9478,29 +9384,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A87" s="119"/>
       <c r="B87" s="108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="119"/>
       <c r="B88" s="121" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A89" s="119"/>
       <c r="B89" s="127" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="118"/>
       <c r="B90" s="118"/>
     </row>
-    <row r="91" spans="1:2" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="125" t="s">
         <v>5</v>
       </c>
@@ -9508,13 +9414,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="106"/>
       <c r="B92" s="123" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>51</v>
       </c>
@@ -9550,14 +9456,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="82.109375" style="20" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
@@ -9565,163 +9471,163 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="42"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="40"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>

--- a/gantt-chart-housepy.xlsx
+++ b/gantt-chart-housepy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Documents\Data_Analysis-BC_UT\Group Project\test\project-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{24462828-3B83-435A-AAB0-058DFA60D881}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B39B246F-517B-49C8-9B68-EE0DE8D43B14}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="3816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2890,6 +2890,9 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2921,9 +2924,6 @@
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4258,8 +4258,8 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4287,29 +4287,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="101"/>
-      <c r="K1" s="132" t="s">
+      <c r="K1" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -4354,11 +4354,11 @@
       <c r="B4" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="137">
+      <c r="C4" s="138">
         <v>43255</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="83"/>
       <c r="G4" s="86" t="s">
         <v>68</v>
@@ -4368,80 +4368,80 @@
       </c>
       <c r="I4" s="84"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="134" t="str">
+      <c r="K4" s="135" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="134" t="str">
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="135" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="134" t="str">
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="137"/>
     </row>
     <row r="5" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="85"/>
       <c r="G5" s="85"/>
       <c r="H5" s="85"/>
       <c r="I5" s="85"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="138">
+      <c r="K5" s="139">
         <f>K6</f>
         <v>43255</v>
       </c>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="138">
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="139">
         <f>R6</f>
         <v>43262</v>
       </c>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="138">
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="139">
         <f>Y6</f>
         <v>43269</v>
       </c>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="141"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
@@ -4754,7 +4754,7 @@
         <f t="shared" ref="A10:A16" si="4">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="132" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -4805,7 +4805,7 @@
         <f t="shared" si="4"/>
         <v>1.1.2</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="132" t="s">
         <v>182</v>
       </c>
       <c r="C11" s="57" t="s">
@@ -4856,7 +4856,7 @@
         <f t="shared" si="4"/>
         <v>1.1.3</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="132" t="s">
         <v>183</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -4907,7 +4907,7 @@
         <f t="shared" si="4"/>
         <v>1.1.4</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="132" t="s">
         <v>184</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -4958,7 +4958,7 @@
         <f t="shared" si="4"/>
         <v>1.1.5</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="132" t="s">
         <v>185</v>
       </c>
       <c r="C14" s="57" t="s">
@@ -5009,7 +5009,7 @@
         <f t="shared" si="4"/>
         <v>1.1.6</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="132" t="s">
         <v>186</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -5060,7 +5060,7 @@
         <f t="shared" si="4"/>
         <v>1.1.7</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="132" t="s">
         <v>187</v>
       </c>
       <c r="C16" s="57" t="s">
@@ -5705,7 +5705,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="132" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="57" t="s">
@@ -5756,7 +5756,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="132" t="s">
         <v>148</v>
       </c>
       <c r="C30" s="57" t="s">
@@ -5807,7 +5807,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.3</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="132" t="s">
         <v>150</v>
       </c>
       <c r="C31" s="57" t="s">
@@ -5858,7 +5858,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.4</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="132" t="s">
         <v>155</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -5961,7 +5961,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
       </c>
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="132" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="57" t="s">
@@ -6012,7 +6012,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.2</v>
       </c>
-      <c r="B35" s="142" t="s">
+      <c r="B35" s="132" t="s">
         <v>158</v>
       </c>
       <c r="C35" s="57" t="s">
@@ -6063,7 +6063,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.3</v>
       </c>
-      <c r="B36" s="142" t="s">
+      <c r="B36" s="132" t="s">
         <v>159</v>
       </c>
       <c r="C36" s="57" t="s">
@@ -6114,7 +6114,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.4</v>
       </c>
-      <c r="B37" s="142" t="s">
+      <c r="B37" s="132" t="s">
         <v>160</v>
       </c>
       <c r="C37" s="57" t="s">
@@ -6217,7 +6217,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.1</v>
       </c>
-      <c r="B39" s="142" t="s">
+      <c r="B39" s="132" t="s">
         <v>161</v>
       </c>
       <c r="C39" s="57" t="s">
@@ -6268,7 +6268,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.2</v>
       </c>
-      <c r="B40" s="142" t="s">
+      <c r="B40" s="132" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="57" t="s">
@@ -6319,7 +6319,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.3</v>
       </c>
-      <c r="B41" s="142" t="s">
+      <c r="B41" s="132" t="s">
         <v>163</v>
       </c>
       <c r="C41" s="57" t="s">
@@ -6370,7 +6370,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.4</v>
       </c>
-      <c r="B42" s="142" t="s">
+      <c r="B42" s="132" t="s">
         <v>164</v>
       </c>
       <c r="C42" s="57" t="s">
@@ -6473,7 +6473,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.4.1</v>
       </c>
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="132" t="s">
         <v>152</v>
       </c>
       <c r="C44" s="57" t="s">
@@ -6524,7 +6524,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.4.2</v>
       </c>
-      <c r="B45" s="142" t="s">
+      <c r="B45" s="132" t="s">
         <v>151</v>
       </c>
       <c r="C45" s="57" t="s">
@@ -6575,7 +6575,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.4.3</v>
       </c>
-      <c r="B46" s="142" t="s">
+      <c r="B46" s="132" t="s">
         <v>154</v>
       </c>
       <c r="C46" s="57" t="s">
@@ -6626,7 +6626,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.4.4</v>
       </c>
-      <c r="B47" s="142" t="s">
+      <c r="B47" s="132" t="s">
         <v>153</v>
       </c>
       <c r="C47" s="57" t="s">
@@ -6729,7 +6729,7 @@
         <f t="shared" ref="A49:A58" si="14">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.5.1</v>
       </c>
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="132" t="s">
         <v>167</v>
       </c>
       <c r="C49" s="57" t="s">
@@ -6780,7 +6780,7 @@
         <f t="shared" si="14"/>
         <v>3.5.2</v>
       </c>
-      <c r="B50" s="142" t="s">
+      <c r="B50" s="132" t="s">
         <v>168</v>
       </c>
       <c r="C50" s="57" t="s">
@@ -6831,7 +6831,7 @@
         <f t="shared" si="14"/>
         <v>3.5.3</v>
       </c>
-      <c r="B51" s="142" t="s">
+      <c r="B51" s="132" t="s">
         <v>170</v>
       </c>
       <c r="C51" s="57" t="s">
@@ -6882,7 +6882,7 @@
         <f t="shared" si="14"/>
         <v>3.5.4</v>
       </c>
-      <c r="B52" s="142" t="s">
+      <c r="B52" s="132" t="s">
         <v>169</v>
       </c>
       <c r="C52" s="57" t="s">
@@ -6933,7 +6933,7 @@
         <f t="shared" si="14"/>
         <v>3.5.5</v>
       </c>
-      <c r="B53" s="142" t="s">
+      <c r="B53" s="132" t="s">
         <v>171</v>
       </c>
       <c r="C53" s="57" t="s">
@@ -6984,7 +6984,7 @@
         <f t="shared" si="14"/>
         <v>3.5.6</v>
       </c>
-      <c r="B54" s="142" t="s">
+      <c r="B54" s="132" t="s">
         <v>173</v>
       </c>
       <c r="C54" s="57" t="s">
@@ -7035,7 +7035,7 @@
         <f t="shared" si="14"/>
         <v>3.5.7</v>
       </c>
-      <c r="B55" s="142" t="s">
+      <c r="B55" s="132" t="s">
         <v>172</v>
       </c>
       <c r="C55" s="57" t="s">
@@ -7086,7 +7086,7 @@
         <f t="shared" si="14"/>
         <v>3.5.8</v>
       </c>
-      <c r="B56" s="142" t="s">
+      <c r="B56" s="132" t="s">
         <v>157</v>
       </c>
       <c r="C56" s="57" t="s">
@@ -7137,7 +7137,7 @@
         <f t="shared" si="14"/>
         <v>3.5.9</v>
       </c>
-      <c r="B57" s="142" t="s">
+      <c r="B57" s="132" t="s">
         <v>165</v>
       </c>
       <c r="C57" s="57" t="s">
@@ -7188,7 +7188,7 @@
         <f t="shared" si="14"/>
         <v>3.5.10</v>
       </c>
-      <c r="B58" s="142" t="s">
+      <c r="B58" s="132" t="s">
         <v>166</v>
       </c>
       <c r="C58" s="57" t="s">
@@ -8973,10 +8973,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="141"/>
+      <c r="B13" s="142"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" s="103" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -9038,10 +9038,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="141"/>
+      <c r="B24" s="142"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="113"/>
@@ -9114,10 +9114,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="141"/>
+      <c r="B38" s="142"/>
     </row>
     <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B39" s="110" t="s">
@@ -9154,10 +9154,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="141" t="s">
+      <c r="A49" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="141"/>
+      <c r="B49" s="142"/>
     </row>
     <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B50" s="110" t="s">
@@ -9255,10 +9255,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="141" t="s">
+      <c r="A65" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="141"/>
+      <c r="B65" s="142"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B66" s="110" t="s">
@@ -9269,10 +9269,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="141"/>
+      <c r="B68" s="142"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="125" t="s">
